--- a/output/Khuc_tinh.xlsx
+++ b/output/Khuc_tinh.xlsx
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="D2">
         <v>1236739</v>
       </c>
       <c r="E2">
-        <v>0.2044893870089</v>
+        <v>0.204651102617448</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -443,13 +443,13 @@
         </is>
       </c>
       <c r="C3">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="D3">
         <v>1842960</v>
       </c>
       <c r="E3">
-        <v>0.1757498806268177</v>
+        <v>0.1758041411642141</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="D4">
         <v>1996889</v>
       </c>
       <c r="E4">
-        <v>0.1036612450667013</v>
+        <v>0.1037614008590362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="D7">
         <v>7915641</v>
       </c>
       <c r="E7">
-        <v>0.04809465209450504</v>
+        <v>0.04810728531018524</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D9">
         <v>587593</v>
       </c>
       <c r="E9">
-        <v>0.03693032422101693</v>
+        <v>0.03710051004692023</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D12">
         <v>1785938</v>
       </c>
       <c r="E12">
-        <v>0.03006823305176328</v>
+        <v>0.03012422603696209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D13">
         <v>1281633</v>
       </c>
       <c r="E13">
-        <v>0.01841400775416988</v>
+        <v>0.01849203321075534</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D16">
         <v>1234621</v>
       </c>
       <c r="E16">
-        <v>0.01563232765358762</v>
+        <v>0.01579432068626728</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17">
         <v>984121</v>
       </c>
       <c r="E17">
-        <v>0.01524202816523578</v>
+        <v>0.01534364168633735</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1595,30 +1595,30 @@
         </is>
       </c>
       <c r="C39">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="D39">
-        <v>3609772</v>
+        <v>1209688</v>
       </c>
       <c r="E39">
-        <v>0.005346598067689594</v>
+        <v>0.005373286334988857</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tỉnh Thanh Hóa</t>
+          <t>Tỉnh Khánh Hòa</t>
         </is>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1627,30 +1627,30 @@
         </is>
       </c>
       <c r="C40">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="D40">
-        <v>843026</v>
+        <v>3609772</v>
       </c>
       <c r="E40">
-        <v>0.00533791365865347</v>
+        <v>0.005346598067689594</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tỉnh Hà Nam</t>
+          <t>Tỉnh Thanh Hóa</t>
         </is>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1659,24 +1659,24 @@
         </is>
       </c>
       <c r="C41">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>1209688</v>
+        <v>843026</v>
       </c>
       <c r="E41">
-        <v>0.005290620391373643</v>
+        <v>0.00533791365865347</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tỉnh Khánh Hòa</t>
+          <t>Tỉnh Hà Nam</t>
         </is>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
